--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dll4</t>
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.98898393334348</v>
+        <v>27.62133033333333</v>
       </c>
       <c r="H2">
-        <v>6.98898393334348</v>
+        <v>82.863991</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.984261144236963</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9842611442369629</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N2">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q2">
-        <v>32.81636741775274</v>
+        <v>760.5754462068201</v>
       </c>
       <c r="R2">
-        <v>32.81636741775274</v>
+        <v>6845.179015861381</v>
       </c>
       <c r="S2">
-        <v>0.04428246608326485</v>
+        <v>0.2022545710869539</v>
       </c>
       <c r="T2">
-        <v>0.04428246608326485</v>
+        <v>0.2022545710869539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.98898393334348</v>
+        <v>27.62133033333333</v>
       </c>
       <c r="H3">
-        <v>6.98898393334348</v>
+        <v>82.863991</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.984261144236963</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9842611442369629</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N3">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q3">
-        <v>191.9383372305728</v>
+        <v>759.7172146449232</v>
       </c>
       <c r="R3">
-        <v>191.9383372305728</v>
+        <v>6837.454931804308</v>
       </c>
       <c r="S3">
-        <v>0.2590019425456913</v>
+        <v>0.2020263475000494</v>
       </c>
       <c r="T3">
-        <v>0.2590019425456913</v>
+        <v>0.2020263475000494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.98898393334348</v>
+        <v>27.62133033333333</v>
       </c>
       <c r="H4">
-        <v>6.98898393334348</v>
+        <v>82.863991</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.984261144236963</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9842611442369629</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N4">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q4">
-        <v>283.6163702209396</v>
+        <v>1246.543889131622</v>
       </c>
       <c r="R4">
-        <v>283.6163702209396</v>
+        <v>11218.8950021846</v>
       </c>
       <c r="S4">
-        <v>0.3827124475749638</v>
+        <v>0.3314847999560873</v>
       </c>
       <c r="T4">
-        <v>0.3827124475749638</v>
+        <v>0.3314847999560873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>27.62133033333333</v>
+      </c>
+      <c r="H5">
+        <v>82.863991</v>
+      </c>
+      <c r="I5">
+        <v>0.984261144236963</v>
+      </c>
+      <c r="J5">
+        <v>0.9842611442369629</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>33.831228</v>
+      </c>
+      <c r="N5">
+        <v>101.493684</v>
+      </c>
+      <c r="O5">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="P5">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="Q5">
+        <v>934.4635241703161</v>
+      </c>
+      <c r="R5">
+        <v>8410.171717532843</v>
+      </c>
+      <c r="S5">
+        <v>0.2484954256938723</v>
+      </c>
+      <c r="T5">
+        <v>0.2484954256938723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1048673333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.314602</v>
+      </c>
+      <c r="I6">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="J6">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>27.53580066666666</v>
+      </c>
+      <c r="N6">
+        <v>82.60740199999999</v>
+      </c>
+      <c r="O6">
+        <v>0.2054887285464767</v>
+      </c>
+      <c r="P6">
+        <v>0.2054887285464768</v>
+      </c>
+      <c r="Q6">
+        <v>2.887605987111555</v>
+      </c>
+      <c r="R6">
+        <v>25.988453884004</v>
+      </c>
+      <c r="S6">
+        <v>0.0007678811001644593</v>
+      </c>
+      <c r="T6">
+        <v>0.0007678811001644594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1048673333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.314602</v>
+      </c>
+      <c r="I7">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="J7">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.50472933333333</v>
+      </c>
+      <c r="N7">
+        <v>82.514188</v>
+      </c>
+      <c r="O7">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="P7">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="Q7">
+        <v>2.884347619241777</v>
+      </c>
+      <c r="R7">
+        <v>25.959128573176</v>
+      </c>
+      <c r="S7">
+        <v>0.0007670146249196536</v>
+      </c>
+      <c r="T7">
+        <v>0.0007670146249196537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1048673333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.314602</v>
+      </c>
+      <c r="I8">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="J8">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>45.12975566666668</v>
+      </c>
+      <c r="N8">
+        <v>135.389267</v>
+      </c>
+      <c r="O8">
+        <v>0.3367854170582615</v>
+      </c>
+      <c r="P8">
+        <v>0.3367854170582616</v>
+      </c>
+      <c r="Q8">
+        <v>4.732637130748222</v>
+      </c>
+      <c r="R8">
+        <v>42.593734176734</v>
+      </c>
+      <c r="S8">
+        <v>0.001258517478789852</v>
+      </c>
+      <c r="T8">
+        <v>0.001258517478789852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6.98898393334348</v>
-      </c>
-      <c r="H5">
-        <v>6.98898393334348</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>33.2949725343422</v>
-      </c>
-      <c r="N5">
-        <v>33.2949725343422</v>
-      </c>
-      <c r="O5">
-        <v>0.31400314379608</v>
-      </c>
-      <c r="P5">
-        <v>0.31400314379608</v>
-      </c>
-      <c r="Q5">
-        <v>232.6980281036301</v>
-      </c>
-      <c r="R5">
-        <v>232.6980281036301</v>
-      </c>
-      <c r="S5">
-        <v>0.31400314379608</v>
-      </c>
-      <c r="T5">
-        <v>0.31400314379608</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1048673333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.314602</v>
+      </c>
+      <c r="I9">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="J9">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.831228</v>
+      </c>
+      <c r="N9">
+        <v>101.493684</v>
+      </c>
+      <c r="O9">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="P9">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="Q9">
+        <v>3.547790663752</v>
+      </c>
+      <c r="R9">
+        <v>31.930115973768</v>
+      </c>
+      <c r="S9">
+        <v>0.0009434394478313699</v>
+      </c>
+      <c r="T9">
+        <v>0.0009434394478313699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02177466666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.06532399999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.0007759205682735625</v>
+      </c>
+      <c r="J10">
+        <v>0.0007759205682735624</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.53580066666666</v>
+      </c>
+      <c r="N10">
+        <v>82.60740199999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2054887285464767</v>
+      </c>
+      <c r="P10">
+        <v>0.2054887285464768</v>
+      </c>
+      <c r="Q10">
+        <v>0.5995828809164443</v>
+      </c>
+      <c r="R10">
+        <v>5.396245928247999</v>
+      </c>
+      <c r="S10">
+        <v>0.0001594429310275941</v>
+      </c>
+      <c r="T10">
+        <v>0.000159442931027594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02177466666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.06532399999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.0007759205682735625</v>
+      </c>
+      <c r="J11">
+        <v>0.0007759205682735624</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.50472933333333</v>
+      </c>
+      <c r="N11">
+        <v>82.514188</v>
+      </c>
+      <c r="O11">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="P11">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="Q11">
+        <v>0.5989063129902221</v>
+      </c>
+      <c r="R11">
+        <v>5.390156816912</v>
+      </c>
+      <c r="S11">
+        <v>0.0001592630159956117</v>
+      </c>
+      <c r="T11">
+        <v>0.0001592630159956117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02177466666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.06532399999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0007759205682735625</v>
+      </c>
+      <c r="J12">
+        <v>0.0007759205682735624</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>45.12975566666668</v>
+      </c>
+      <c r="N12">
+        <v>135.389267</v>
+      </c>
+      <c r="O12">
+        <v>0.3367854170582615</v>
+      </c>
+      <c r="P12">
+        <v>0.3367854170582616</v>
+      </c>
+      <c r="Q12">
+        <v>0.9826853863897779</v>
+      </c>
+      <c r="R12">
+        <v>8.844168477508001</v>
+      </c>
+      <c r="S12">
+        <v>0.000261318732190095</v>
+      </c>
+      <c r="T12">
+        <v>0.000261318732190095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02177466666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.06532399999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0007759205682735625</v>
+      </c>
+      <c r="J13">
+        <v>0.0007759205682735624</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.831228</v>
+      </c>
+      <c r="N13">
+        <v>101.493684</v>
+      </c>
+      <c r="O13">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="P13">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="Q13">
+        <v>0.736663712624</v>
+      </c>
+      <c r="R13">
+        <v>6.629973413616</v>
+      </c>
+      <c r="S13">
+        <v>0.0001958958890602616</v>
+      </c>
+      <c r="T13">
+        <v>0.0001958958890602615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3150376666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.9451130000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01122608254305817</v>
+      </c>
+      <c r="J14">
+        <v>0.01122608254305816</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>27.53580066666666</v>
+      </c>
+      <c r="N14">
+        <v>82.60740199999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2054887285464767</v>
+      </c>
+      <c r="P14">
+        <v>0.2054887285464768</v>
+      </c>
+      <c r="Q14">
+        <v>8.674814391825111</v>
+      </c>
+      <c r="R14">
+        <v>78.07332952642601</v>
+      </c>
+      <c r="S14">
+        <v>0.002306833428330821</v>
+      </c>
+      <c r="T14">
+        <v>0.002306833428330821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3150376666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.9451130000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01122608254305817</v>
+      </c>
+      <c r="J15">
+        <v>0.01122608254305816</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.50472933333333</v>
+      </c>
+      <c r="N15">
+        <v>82.514188</v>
+      </c>
+      <c r="O15">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="P15">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="Q15">
+        <v>8.665025751471557</v>
+      </c>
+      <c r="R15">
+        <v>77.98523176324402</v>
+      </c>
+      <c r="S15">
+        <v>0.002304230402863582</v>
+      </c>
+      <c r="T15">
+        <v>0.002304230402863582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3150376666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.9451130000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01122608254305817</v>
+      </c>
+      <c r="J16">
+        <v>0.01122608254305816</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>45.12975566666668</v>
+      </c>
+      <c r="N16">
+        <v>135.389267</v>
+      </c>
+      <c r="O16">
+        <v>0.3367854170582615</v>
+      </c>
+      <c r="P16">
+        <v>0.3367854170582616</v>
+      </c>
+      <c r="Q16">
+        <v>14.21757292246345</v>
+      </c>
+      <c r="R16">
+        <v>127.958156302171</v>
+      </c>
+      <c r="S16">
+        <v>0.003780780891194314</v>
+      </c>
+      <c r="T16">
+        <v>0.003780780891194314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3150376666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.9451130000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.01122608254305817</v>
+      </c>
+      <c r="J17">
+        <v>0.01122608254305816</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.831228</v>
+      </c>
+      <c r="N17">
+        <v>101.493684</v>
+      </c>
+      <c r="O17">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="P17">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="Q17">
+        <v>10.658111129588</v>
+      </c>
+      <c r="R17">
+        <v>95.92300016629201</v>
+      </c>
+      <c r="S17">
+        <v>0.002834237820669448</v>
+      </c>
+      <c r="T17">
+        <v>0.002834237820669448</v>
       </c>
     </row>
   </sheetData>
